--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T100.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T100.xlsx
@@ -471,28 +471,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
